--- a/data/trans_dic/P18_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P18_3_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido sola en algún momento o más en la última semana</t>
+          <t>Población que se ha sentido sola en algún momento o más en la última semana (tasa de respuesta: 99,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>91,2%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>87,47%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>23,31%</t>
+          <t>76,02%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>83,09%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>23,11%</t>
+          <t>66,82%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>26,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28,32%</t>
+          <t>78,62%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>27,88%</t>
+          <t>77,01%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>38,45%</t>
+          <t>71,86%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>70,47%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>64,07%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>26,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>23,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>31,59%</t>
+          <t>84,42%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>81,72%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>73,73%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>76,12%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>65,21%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,41; 22,73</t>
+          <t>83,28; 95,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,05; 33,11</t>
+          <t>80,63; 93,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,17; 31,08</t>
+          <t>65,44; 82,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,6; 25,98</t>
+          <t>75,03; 87,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,71; 28,73</t>
+          <t>40,44; 78,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,62; 24,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,61; 32,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,74; 33,3</t>
+          <t>70,26; 85,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,07; 33,24</t>
+          <t>69,17; 83,3</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>32,68; 44,28</t>
+          <t>66,3; 77,61</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,39; 22,34</t>
+          <t>65,26; 75,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,41; 28,94</t>
+          <t>55,72; 72,47</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>22,4; 30,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>19,78; 27,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>27,34; 35,63</t>
+          <t>78,15; 88,55</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>76,36; 86,2</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>68,12; 77,83</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>71,73; 79,3</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>54,12; 71,56</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,48%</t>
+          <t>83,6%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,79%</t>
+          <t>85,01%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>78,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>79,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>72,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>21,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,69%</t>
+          <t>74,01%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>31,47%</t>
+          <t>79,62%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>32,24%</t>
+          <t>70,66%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>68,29%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>65,85%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>23,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>25,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>30,77%</t>
+          <t>78,58%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>82,22%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>74,46%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>74,16%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>69,23%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,64; 19,72</t>
+          <t>77,31; 87,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,59; 19,69</t>
+          <t>80,17; 88,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,81; 24,18</t>
+          <t>73,31; 82,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,08; 23,93</t>
+          <t>74,99; 83,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,23; 34,29</t>
+          <t>65,04; 78,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,48; 29,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,13; 24,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,27; 30,16</t>
+          <t>68,08; 78,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,75; 34,82</t>
+          <t>75,02; 83,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,15; 36,45</t>
+          <t>65,95; 74,29</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,9; 23,28</t>
+          <t>64,26; 71,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,08; 20,89</t>
+          <t>60,72; 70,75</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>20,91; 25,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>22,58; 28,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>27,46; 33,97</t>
+          <t>74,68; 81,88</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>79,12; 85,21</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>71,36; 77,32</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>71,37; 76,77</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>64,65; 73,12</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>83,28%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>86,63%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>80,55%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,71%</t>
+          <t>76,3%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,38%</t>
+          <t>73,05%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>24,93%</t>
+          <t>74,12%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>30,0%</t>
+          <t>80,4%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>28,58%</t>
+          <t>73,58%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>69,78%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>68,65%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>21,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>26,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>30,37%</t>
+          <t>78,35%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>83,41%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>76,88%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>72,94%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>70,76%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1302,114 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,61; 23,49</t>
+          <t>77,13; 88,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,27; 25,6</t>
+          <t>79,6; 91,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,79; 23,04</t>
+          <t>75,15; 84,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,35; 28,57</t>
+          <t>71,19; 80,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,37; 40,09</t>
+          <t>66,43; 78,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,9; 29,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,42; 24,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,27; 28,54</t>
+          <t>68,05; 79,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,15; 33,87</t>
+          <t>75,51; 85,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>23,31; 34,1</t>
+          <t>69,3; 77,25</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>19,32; 24,91</t>
+          <t>65,54; 73,41</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,83; 23,37</t>
+          <t>62,97; 73,15</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>19,28; 25,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>24,4; 30,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>26,2; 34,93</t>
+          <t>73,91; 81,89</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>79,12; 86,83</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>73,95; 80,19</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>69,88; 75,96</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>66,62; 74,56</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>81,42%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>80,95%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,41%</t>
+          <t>81,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>28,31%</t>
+          <t>74,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>26,58%</t>
+          <t>76,64%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>30,06%</t>
+          <t>75,63%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>33,58%</t>
+          <t>77,56%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>68,78%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>25,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>30,94%</t>
+          <t>79,04%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>78,33%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>79,59%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>72,02%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,2313 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,14; 19,44</t>
+          <t>78,52; 84,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,89; 21,28</t>
+          <t>75,6; 85,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,9; 23,43</t>
+          <t>75,49; 85,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,74; 23,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,14; 31,88</t>
+          <t>69,12; 80,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,04; 26,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,92; 24,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,22; 28,61</t>
+          <t>73,89; 79,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,44; 32,41</t>
+          <t>71,72; 79,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>30,44; 36,59</t>
+          <t>72,47; 82,25</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,22; 22,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,24; 21,94</t>
+          <t>62,91; 73,93</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>21,81; 25,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>23,57; 27,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>28,86; 33,28</t>
+          <t>76,82; 80,91</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>75,38; 81,04</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>75,69; 82,9</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>67,88; 75,69</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>82,71%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>83,89%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>79,3%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>79,3%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>72,7%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>75,89%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>77,93%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>73,11%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>69,32%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>67,03%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>79,23%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>80,84%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>76,14%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>74,22%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>69,81%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>80,35; 84,78</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>81,26; 86,27</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>76,34; 81,79</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>76,47; 81,91</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>67,55; 76,02</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>73,55; 77,91</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>75,69; 80,15</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>70,79; 75,44</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>66,74; 71,54</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>64,34; 70,19</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>77,75; 80,83</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>79,04; 82,56</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>74,38; 78,01</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>72,32; 75,9</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>67,11; 72,0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido sola en algún momento o más en la última semana (tasa de respuesta: 99,87%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>373.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>517.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>204388</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>296695</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>396910</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>597936</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>298963</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>205738</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>318637</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>457467</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>626257</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>405546</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>410126</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>615332</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>854377</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1224194</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>704509</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>186642; 214499</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>273492; 316186</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>341703; 429035</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>539954; 632915</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>180922; 351653</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>183871; 224712</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>286220; 344674</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>422057; 494049</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>579969; 667751</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>352704; 458737</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>379679; 430197</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>574978; 649044</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>789363; 901842</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>1153648; 1275468</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>584738; 773087</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>371.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>473.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>233.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>296.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>407.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>475.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>453.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>566.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>778.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>948.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>497.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>544093</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>792752</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>942066</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1290106</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>777671</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>529247</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>796180</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>871541</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1028293</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>713453</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1073340</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1588932</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>1813608</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>2318399</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>1491123</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>503174; 570611</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>747614; 828778</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>881256; 992247</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1215008; 1347446</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>696281; 837135</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>486841; 563938</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>750155; 831525</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>813442; 916254</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>967665; 1082706</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>657933; 766532</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1020143; 1118387</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1528962; 1646756</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>1738082; 1883167</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>2230895; 2399899</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>1392517; 1574890</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>293.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>363.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>334.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>408.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>343.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>465.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>627.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>771.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>468.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>379480</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>619903</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>681194</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>832683</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>603401</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>392365</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>616870</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>692929</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>809401</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>615840</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>771845</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1236773</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>1374123</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>1642084</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>1219241</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>351490; 402883</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>569649; 651265</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>635533; 715879</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>776918; 878300</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>548767; 652068</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>360277; 420214</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>579325; 654073</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>652588; 727443</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>760223; 851471</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>564906; 656223</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>728054; 806634</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1173126; 1287493</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>1321777; 1433274</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>1573214; 1710035</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>1147968; 1284792</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>655.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>378.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>710.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>394.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>269.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>1365.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>772.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>522.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>479.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1719801</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1164493</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>698126</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>821498</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1600077</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1059741</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>589758</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>671555</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>3319877</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>2224234</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1287884</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>1493054</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1658584; 1780039</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1087534; 1224144</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>647631; 736996</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>758128; 879183</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1542708; 1661918</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1004985; 1113462</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>551036; 625410</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>614233; 721900</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>3226561; 3398507</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>2140466; 2301315</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>1224911; 1341488</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>1407251; 1569219</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1117.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>970.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1089.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1080.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>783.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1218.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1047.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1211.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1156.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>863.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2335.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>2017.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>2300.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>2236.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>1646.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2847762</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2873844</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2718297</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2720725</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2501532</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2727426</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2791428</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2611695</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2463952</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2406394</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>5575189</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>5665271</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>5329992</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>5184677</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>4907927</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2766429; 2918974</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2783776; 2955538</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2616863; 2803663</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2623783; 2810464</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2324190; 2615660</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2643312; 2800107</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2711343; 2871211</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2528860; 2694742</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2372168; 2542959</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2309745; 2519778</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>5471126; 5688037</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>5539029; 5785584</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>5206673; 5460559</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>5051819; 5302246</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>4718626; 5062139</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
